--- a/Investments_example.xlsx
+++ b/Investments_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arik\Documents\CSSkins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arik\Documents\CSSkins\CS-Skin-Investment-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F3F83F-F6C3-4380-B3AB-C09FBBB7774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B47EF2-3E18-4F5F-8593-5B9B946D1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>Total Profit per Item</t>
   </si>
   <si>
-    <t>Total Profit</t>
+    <t>Last Updated</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
